--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\DATA LITERATUR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\APLIKASI PLS SEM PADA DATA KEUANGAN, DENGAN HARGA SAHAM ENDOGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A9BA37-50E2-41B5-8118-2C934EB3CEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021516BA-599C-43A8-AE03-341FB144D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>Sinta</t>
   </si>
@@ -141,9 +141,6 @@
     <t>https://drive.google.com/file/d/1rHPBtinWPh4lG-m9OUCAMOqYN0FGqSph/view?usp=sharing</t>
   </si>
   <si>
-    <t>DER, ROA, CR, EPS (Moderasi)</t>
-  </si>
-  <si>
     <t>3 dari 7</t>
   </si>
   <si>
@@ -181,6 +178,96 @@
   </si>
   <si>
     <t>Jurnal Bisnis Terapan: LUCRUM</t>
+  </si>
+  <si>
+    <t>Journal of Economic, Bussines and Accounting (COSTING)</t>
+  </si>
+  <si>
+    <t>PENGARUH KINERJA KEUANGAN TERHADAP HARGA SAHAM DENGAN KEBIJAKAN DIVIDEN SEBAGAI VARIABEL INTERVENING (Studi Empiris Pada Saham Perusahaan Yang Tergolong Indeks LQ45 Di BEI Periode 2019-2023)</t>
+  </si>
+  <si>
+    <t>Ahmad Zaini, Supriyono Supriyono, Joko Utomo</t>
+  </si>
+  <si>
+    <t>Jurnal Ekonomi dan Ekonomi Syariah: JESYA</t>
+  </si>
+  <si>
+    <t>PENGARUH RASIO PROFITABILITAS TERHADAP HARGA SAHAM DENGAN IPO SEBAGAI VARIABEL MODERATING</t>
+  </si>
+  <si>
+    <t>Khusnik Hudzafidah, Ahmad Iskandar Rahmansyah, Umi Rahma Dhany, Judi Suharsono</t>
+  </si>
+  <si>
+    <t>Jurnal Manajemen Strategi dan Aplikasi Bisnis</t>
+  </si>
+  <si>
+    <t>Determinasi modal intelektual, ukuran perusahaan, struktur modal terhadap harga saham dengan kinerja keuangan sebagai intervening</t>
+  </si>
+  <si>
+    <t>Mia Laksmiwati, Retno Fuji Oktaviani, Rinny Meidiyustiani, Sugeng Priyanto</t>
+  </si>
+  <si>
+    <t>https://journal.ipm2kpe.or.id/index.php/COSTING/article/view/12238</t>
+  </si>
+  <si>
+    <t>https://stiealwashliyahsibolga.ac.id/jurnal/index.php/jesya/article/view/1163</t>
+  </si>
+  <si>
+    <t>https://ejournal.imperiuminstitute.org/index.php/JMSAB/article/view/907</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cP7q2HTzS05d7hR6mJHuCaCj8HONv-ug/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KSJaQ-MITkcwVMykwYsxNC3CD1tG4Snd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YIzrT0UsJyFApwik67jsOeL3NRy0ehuf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iSdBbvmcRnE-EjSWXSE_2wg4KwtfJdUu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>DER, Total Assets Turnover (TATO), ROE, Kebijakan Dividen</t>
+  </si>
+  <si>
+    <t>3 dari 4</t>
+  </si>
+  <si>
+    <t>Ada (Kebijakan Dividen)</t>
+  </si>
+  <si>
+    <t>Ada (Initial Public Offering (IPO))</t>
+  </si>
+  <si>
+    <t>3 dari 5</t>
+  </si>
+  <si>
+    <t>Initial Public Offering (IPO), ROA, ROE, IPO*ROA, IPO*ROE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TWYzgo7hJSljYD9rBxiGJE6yC5AI0yZr/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>DER, ROA, CR, EPS (Moderasi), DER*EPS, ROA*EPS, CR*EPS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nvDUdKUawmqvX4OjApCKbiJYxH-4hYlI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Intelektual Capital, Struktur Modal, Ukuran Perusahaan, Kinerja Keuangan</t>
+  </si>
+  <si>
+    <t>Ada (Kinerja Keuangan)</t>
+  </si>
+  <si>
+    <t>Ada Menyajikan Average Variance Extracted?</t>
+  </si>
+  <si>
+    <t>Ada Menyajikan Cronbach's Alpha atau Composite Reliability?</t>
+  </si>
+  <si>
+    <t>Ada Menyajikan Discriminant Validity?</t>
   </si>
 </sst>
 </file>
@@ -517,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,31 +622,34 @@
     <col min="8" max="8" width="64.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="72.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="68.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="51.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="53.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="52.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="61.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="57.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="50.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="52.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="54" style="1" customWidth="1"/>
+    <col min="23" max="23" width="72" style="1" customWidth="1"/>
+    <col min="24" max="24" width="29.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="41.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="40.5703125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -621,13 +711,22 @@
       <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -692,13 +791,22 @@
       <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -715,17 +823,17 @@
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M3" s="3">
         <v>0.48099999999999998</v>
@@ -737,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
@@ -760,40 +868,49 @@
       <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>2024</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="M4" s="3">
         <v>9.4E-2</v>
@@ -826,12 +943,267 @@
         <v>31</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B163FB86-0156-4E50-A786-50E9987033E1}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{D8ACD9BA-526E-44D7-A0B4-634459147769}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{227E0EE9-17C2-41C0-8066-DA28B73D96EB}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{201F3428-DCBA-43E5-9445-06F52B48393E}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{433CDD6D-15D8-4438-87B5-C37C401915DD}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{D83C95D5-4208-4C26-9E11-12E3BA7ADAB1}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{34AC2109-103A-4027-BF10-79F3F1DBB9BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\APLIKASI PLS SEM PADA DATA KEUANGAN, DENGAN HARGA SAHAM ENDOGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021516BA-599C-43A8-AE03-341FB144D3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79362A1-D735-4480-969A-B42AA63CE107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>Sinta</t>
   </si>
@@ -268,6 +268,60 @@
   </si>
   <si>
     <t>Ada Menyajikan Discriminant Validity?</t>
+  </si>
+  <si>
+    <t>Economic Education Journal; JAMBURA</t>
+  </si>
+  <si>
+    <t>EPS SEBAGAI VARIABEL INTERVENING ANTARA PROFITABILITAS, SOLVABILITAS, DAN LIKUIDITAS TERHADAP HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>Fadillah Citra Ardhana, Saiful Anwar</t>
+  </si>
+  <si>
+    <t>https://ejurnal.ung.ac.id/index.php/jej/article/view/18381</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1NLW7H9PSqxRxYFWFo2k-Ep9QQJcWhYH0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/160_P4w46nUwtYonpbell7GILuknENV9x/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Rasio Profitabilitas, Rasio Solvabilitas, Rasio Likuiditas, Earning per Share</t>
+  </si>
+  <si>
+    <t>1 dari 4</t>
+  </si>
+  <si>
+    <t>Journal of Social and Economics Research</t>
+  </si>
+  <si>
+    <t>PENGARUH RETURN ON ASSET, RETURN ON EQUITY DAN DEBT EQUITY RATIO TERHADAP HARGA SAHAM</t>
+  </si>
+  <si>
+    <t>Eva Lestari, Fitrawansyah, Edwin Jonathan</t>
+  </si>
+  <si>
+    <t>https://idm.or.id/JSER/index.php/JSER/article/view/119</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zNu9i8Mk0QUXIolwPa0gCwtzdyD2PUcc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Ada Menyajikan Pemeriksaan Multikolinearitas?</t>
+  </si>
+  <si>
+    <t>3 dari 3</t>
+  </si>
+  <si>
+    <t>DER, ROA, ROE</t>
+  </si>
+  <si>
+    <t>TIdak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/175wu1DXN8SC4IZtnnXHC3M7zv8fYKAWk/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -604,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +692,11 @@
     <col min="24" max="24" width="29.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="41.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="40.5703125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="46.140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -720,8 +775,11 @@
       <c r="Z1" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -801,7 +859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -878,7 +936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -955,7 +1013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1035,7 +1093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1115,7 +1173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1193,6 +1251,169 @@
       </c>
       <c r="Z7" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1204,6 +1425,12 @@
     <hyperlink ref="I7" r:id="rId5" xr:uid="{433CDD6D-15D8-4438-87B5-C37C401915DD}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{D83C95D5-4208-4C26-9E11-12E3BA7ADAB1}"/>
     <hyperlink ref="H7" r:id="rId7" xr:uid="{34AC2109-103A-4027-BF10-79F3F1DBB9BD}"/>
+    <hyperlink ref="G8" r:id="rId8" xr:uid="{63B7B58C-76A5-4D93-993E-82340FDC4941}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{A501E8A9-8D02-4837-B1DE-449721D7F0AB}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{533F4BF4-E370-42A7-A5ED-8A2B6EC37031}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{38FD8206-F359-4B46-BEDE-0B70E101E2A7}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{5B06192E-DBCF-4D9D-8C93-E5C5715D31C9}"/>
+    <hyperlink ref="I9" r:id="rId13" xr:uid="{2AF8A06E-69B4-4AAE-A727-8ABF8ABEC84E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\APLIKASI PLS SEM PADA DATA KEUANGAN, DENGAN HARGA SAHAM ENDOGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79362A1-D735-4480-969A-B42AA63CE107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323AA7C0-625F-4329-871C-849E99BF0485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>Sinta</t>
   </si>
@@ -322,6 +322,57 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/175wu1DXN8SC4IZtnnXHC3M7zv8fYKAWk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Journal on Education</t>
+  </si>
+  <si>
+    <t>Determinan Nilai Perusahaan dengan Harga Saham Sebagai Variabel Intervening</t>
+  </si>
+  <si>
+    <t>Donianto Tandi Patiku, Muhammad Su’un, Andika Pramukti</t>
+  </si>
+  <si>
+    <t>https://jonedu.org/index.php/joe/article/view/1958</t>
+  </si>
+  <si>
+    <t>1 dari 3</t>
+  </si>
+  <si>
+    <t>profitabilitas, kebijakan deviden, struktur modal</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>Ada (Harga Saham)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zby0gnIPfEsP7SZAuiySOG4Rug0b7tHc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>SEMINAR NASIONAL SEKOLAH PASCASARJANA UNIVERSITAS LANCANG KUNING</t>
+  </si>
+  <si>
+    <t>ANALISIS EARNING PER SHARE TERHADAP HARGA SAHAM DENGAN DIVIDEND POLICY SEBAGAI VARIABEL INTERVENING PADA PERUSAHAAN LQ45 YANG TERDAFTAR DI BURSA EFEK INDONESIA</t>
+  </si>
+  <si>
+    <t>Aviva Nadia, Fahmi Oemar, Azhari Syofyan, Ali Asfar</t>
+  </si>
+  <si>
+    <t>https://journal.unilak.ac.id/index.php/Senaspu/article/view/12966</t>
+  </si>
+  <si>
+    <t>2 dari 2</t>
+  </si>
+  <si>
+    <t>EPS, DPR</t>
+  </si>
+  <si>
+    <t>Ada (DPR)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fAktJ-1S6mE6Vj02temJzLRQdu5tuwod/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -658,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +909,9 @@
       <c r="Z2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -935,6 +989,9 @@
       <c r="Z3" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1012,6 +1069,9 @@
       <c r="Z4" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1092,6 +1152,9 @@
       <c r="Z5" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1172,6 +1235,9 @@
       <c r="Z6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1252,6 +1318,9 @@
       <c r="Z7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AA7" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1332,6 +1401,9 @@
       <c r="Z8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AA8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1414,6 +1486,166 @@
       </c>
       <c r="AA9" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1431,6 +1663,11 @@
     <hyperlink ref="G9" r:id="rId11" xr:uid="{38FD8206-F359-4B46-BEDE-0B70E101E2A7}"/>
     <hyperlink ref="H9" r:id="rId12" xr:uid="{5B06192E-DBCF-4D9D-8C93-E5C5715D31C9}"/>
     <hyperlink ref="I9" r:id="rId13" xr:uid="{2AF8A06E-69B4-4AAE-A727-8ABF8ABEC84E}"/>
+    <hyperlink ref="G10" r:id="rId14" xr:uid="{B9E1F956-A8C6-41E4-9A43-723B50A03384}"/>
+    <hyperlink ref="H10" r:id="rId15" xr:uid="{9EB0F60F-B589-4CC6-9500-56BD7B8F6DFF}"/>
+    <hyperlink ref="I10" r:id="rId16" xr:uid="{0A5BEA72-F45B-4DDA-AA0B-7C0931E3BA01}"/>
+    <hyperlink ref="G11" r:id="rId17" xr:uid="{BC30AC0D-F1AB-4C77-AFD3-94A799D53959}"/>
+    <hyperlink ref="I11" r:id="rId18" xr:uid="{F9E67CAC-97BA-4DC9-9B74-38247F6B572F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data excel.xlsx
+++ b/data excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\GALERY PYTHON STREAMLIT 2025\DATA LITERATUR\APLIKASI PLS SEM PADA DATA KEUANGAN, DENGAN HARGA SAHAM ENDOGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323AA7C0-625F-4329-871C-849E99BF0485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1223C5F9-216E-42C4-AAA4-EEC0C971476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="155">
   <si>
     <t>Sinta</t>
   </si>
@@ -373,6 +373,123 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1fAktJ-1S6mE6Vj02temJzLRQdu5tuwod/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Journal of Management</t>
+  </si>
+  <si>
+    <t>Pengaruh Kinerja Keuangan Terhadap Harga Saham (Studi Empiris Pada Perusahaan Telekomunikasi Terdaftar Di Bursa Efek Indonesia Tahun 2018-2021)</t>
+  </si>
+  <si>
+    <t>Dinar, Amiruddin, Darmawati, Muhammad Irdam Ferdiansyah</t>
+  </si>
+  <si>
+    <t>https://journal.stieamkop.ac.id/index.php/yume/article/view/3140</t>
+  </si>
+  <si>
+    <t>Return on Asset, Return on Equity, Earning per Share</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16FmovniwP7VNW0ophLZYFpN7lB3kD71L/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Kartika: Jurnal Studi Keislaman</t>
+  </si>
+  <si>
+    <t>Pengaruh Rasio Likuiditas Dan Rasio Solvabilitas Terhadap Return On Asset (ROA) Yang Mempengaruhi Harga Saham (Studi Kasus Pada Bank Umum Syariah Yang Terdaftar di Bursa Efek Indonesia)</t>
+  </si>
+  <si>
+    <t>Ceta Indra Lesmana, Lutvi Alamsyah, Ema Widya Kalpikawati</t>
+  </si>
+  <si>
+    <t>https://lptnunganjuk.com/ojs/index.php/kartika/article/view/13</t>
+  </si>
+  <si>
+    <t>Ada (ROA)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1z7nHF_gLc60vnVfwrrIbmNcBj9q-G0Ol/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>ROA, Rasio Likuiditas, Rasio Solvabilitas</t>
+  </si>
+  <si>
+    <t>Jurnal Cakrawala Ilmiah</t>
+  </si>
+  <si>
+    <t>PENGARUH PROFITABILITAS, LIKUIDITAS DAN AKTIVITAS TERHADAP HARGA SAHAM PERUSAHAAN SUB SEKTOR RITEL YANG TERDAFTAR DI BURSA EFEK INDONESIA TAHUN 2016-2020</t>
+  </si>
+  <si>
+    <t>Prillia Dwi Citra Prestiwi, Dwi Tirta Kencana, Muhtad Fadly</t>
+  </si>
+  <si>
+    <t>https://bajangjournal.com/index.php/JCI/article/view/2563</t>
+  </si>
+  <si>
+    <t>Aktivitas (ITO), Likuiditas (CR dan QR), Profitabilitas (ROE)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aLrD9p_-4_tc4PTCTzdEtsWzpWs2uykh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Jurnal Ekonomi dan Bisnis Digital</t>
+  </si>
+  <si>
+    <t>Pengaruh DER, CR dan PBV Terhadap Harga Saham Dengan Kebijakan Dividen Sebagai Variabel Intervening Pada Perusahaan Manufaktur Sektor Industri Barang Konsumsi Tahun 2016 – 2020</t>
+  </si>
+  <si>
+    <t>Ulfi Zuslaini, Syahyunan Syahyunan, Zuwina Miraza</t>
+  </si>
+  <si>
+    <t>https://jebidi.itscience.org/index.php/jebidi/article/view/127</t>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio, Current Ratio, Price to Book Value, Kebijakan Dividen</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/181qlhXllcqFDBsM7R5jyDK3t7WyoUgnE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Ekomabis: Jurnal Ekonomi Manajemen Bisnis</t>
+  </si>
+  <si>
+    <t>Nilai Perusahaan Sebagai Pemediasi Return on Asset dan Earning Per Share Terhadap Harga Saham Sektor Pertanian</t>
+  </si>
+  <si>
+    <t>Anggita Dwi Rinjani</t>
+  </si>
+  <si>
+    <t>https://journal.lppmpelitabangsa.id/index.php/ekomabis/article/view/255</t>
+  </si>
+  <si>
+    <t>Nilai Perusahaan</t>
+  </si>
+  <si>
+    <t>0 dari 1</t>
+  </si>
+  <si>
+    <t>Ada (Nilai Perusahaan)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dw1-MqwMSZ8yFDsOVT-JP7FN7wWo9UpM/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Kurs : jurnal akuntansi, kewirausahaan dan bisnis</t>
+  </si>
+  <si>
+    <t>ANALISIS HARGA SAHAM DENGAN PERTIMBANGAN RASIO PROFITABILITAS PADA PERUSAHAAN PERBANKAN YANG TERDAFTAR DI BURSA EFEK INDONESIA</t>
+  </si>
+  <si>
+    <t>Dian Wahyuni, Mimelientesa Irman</t>
+  </si>
+  <si>
+    <t>https://www.ejournal.pelitaindonesia.ac.id/ojs32/index.php/KURS/article/view/1278</t>
+  </si>
+  <si>
+    <t>Return on Equity, Return on Asset, Net Profit Margin, Earning per Share</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Dd-s79S1Ylf5gQnS4EMsgi6KvubF_NAD/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -417,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,6 +543,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,6 +1768,492 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B163FB86-0156-4E50-A786-50E9987033E1}"/>
@@ -1668,6 +2274,21 @@
     <hyperlink ref="I10" r:id="rId16" xr:uid="{0A5BEA72-F45B-4DDA-AA0B-7C0931E3BA01}"/>
     <hyperlink ref="G11" r:id="rId17" xr:uid="{BC30AC0D-F1AB-4C77-AFD3-94A799D53959}"/>
     <hyperlink ref="I11" r:id="rId18" xr:uid="{F9E67CAC-97BA-4DC9-9B74-38247F6B572F}"/>
+    <hyperlink ref="G12" r:id="rId19" xr:uid="{7AAB13B1-FA86-4FF6-935F-169F513BD08A}"/>
+    <hyperlink ref="H12" r:id="rId20" xr:uid="{40B36CE7-7777-4C9F-B5E9-5ED77BAFBD80}"/>
+    <hyperlink ref="I12" r:id="rId21" xr:uid="{A2D5A086-26F3-4251-81F5-43437A280A37}"/>
+    <hyperlink ref="G13" r:id="rId22" xr:uid="{E5927944-C3C6-4B66-96CF-2AABCB8BF89B}"/>
+    <hyperlink ref="I13" r:id="rId23" xr:uid="{859B21B9-8C9B-4B43-B159-B145E309C879}"/>
+    <hyperlink ref="G14" r:id="rId24" xr:uid="{EE7641A4-E86F-499B-8497-16872A4FD2C0}"/>
+    <hyperlink ref="I14" r:id="rId25" xr:uid="{D21D16D5-C657-4E9A-A9F1-26CF6503B6A9}"/>
+    <hyperlink ref="G15" r:id="rId26" xr:uid="{AE24D136-2061-48E9-A3E4-011C06FA563C}"/>
+    <hyperlink ref="I15" r:id="rId27" xr:uid="{45007283-9CB4-4D56-AD5E-19464A4A5235}"/>
+    <hyperlink ref="G16" r:id="rId28" xr:uid="{CA1FAA77-5147-4ACA-94E9-E0CAE65E6D72}"/>
+    <hyperlink ref="H16" r:id="rId29" xr:uid="{237B1A68-7677-4647-84E1-96E4DB95DB52}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{5FD2B121-E046-4BC0-8FED-3C40A6F89380}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{60C44E19-8923-4395-B775-58EF6A15E9D3}"/>
+    <hyperlink ref="H17" r:id="rId32" xr:uid="{7F861671-1EB6-4934-A443-D4910C000628}"/>
+    <hyperlink ref="I17" r:id="rId33" xr:uid="{669AA855-2427-4E1B-B707-12DDD417C2C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
